--- a/results/heapsort_details.xlsx
+++ b/results/heapsort_details.xlsx
@@ -8,6 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="N=500" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="N=1000" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="N=5000" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="N=30000" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="N=80000" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="N=100000" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="N=150000" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="N=200000" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.5369 ms</t>
+          <t>0.5138 ms</t>
         </is>
       </c>
     </row>
@@ -449,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.5341 ms</t>
+          <t>0.5121 ms</t>
         </is>
       </c>
     </row>
@@ -459,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.5291 ms</t>
+          <t>0.5109 ms</t>
         </is>
       </c>
     </row>
@@ -469,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.5450 ms</t>
+          <t>0.5109 ms</t>
         </is>
       </c>
     </row>
@@ -479,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.5319 ms</t>
+          <t>0.5281 ms</t>
         </is>
       </c>
     </row>
@@ -491,7 +498,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.5354 ms</t>
+          <t>0.5152 ms</t>
         </is>
       </c>
     </row>
@@ -503,7 +510,742 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0061 ms</t>
+          <t>0.0073 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.1737 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.1640 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.1630 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.1640 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.1718 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.1673 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0051 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7.3280 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7.3721 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7.3118 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7.3769 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8.0009 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7.4780 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.2936 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>54.1801 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>55.0601 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>54.7421 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>54.9672 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>54.4741 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>54.6847 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.3616 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163.9209 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>195.2252 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160.6526 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159.9381 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159.5960 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167.8666 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15.3897 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206.3150 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>208.0772 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>205.0009 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>232.5449 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>203.8069 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>211.1490 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12.0654 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>328.0222 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>322.7050 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>318.9368 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>319.3049 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>318.6190 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>321.5176 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3.9899 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>457.8931 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>449.3299 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>440.4600 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>437.9072 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>436.4929 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>444.4166 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9.0356 ms</t>
         </is>
       </c>
     </row>
